--- a/results/nli-cv/combined/train/train_cv_results-AppleSupport-outbound.xlsx
+++ b/results/nli-cv/combined/train/train_cv_results-AppleSupport-outbound.xlsx
@@ -888,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="D2">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="E2">
         <v>0.9527737285304302</v>
@@ -946,7 +946,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="E4">
         <v>0.9034883720930232</v>
@@ -1062,19 +1062,19 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>0.9810000000000001</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E8">
-        <v>0.8314934582061508</v>
+        <v>0.8311996319189094</v>
       </c>
       <c r="F8">
         <v>0.9156626506024096</v>
       </c>
       <c r="G8">
-        <v>0.9159883720930233</v>
+        <v>0.9151162790697674</v>
       </c>
       <c r="H8">
-        <v>0.9176470588235294</v>
+        <v>0.9195402298850575</v>
       </c>
       <c r="I8">
         <v>43</v>
@@ -1091,7 +1091,7 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0.97</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E9">
         <v>0.9527737285304302</v>
@@ -1149,7 +1149,7 @@
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E11">
         <v>0.9527737285304302</v>
@@ -1178,7 +1178,7 @@
         <v>24</v>
       </c>
       <c r="D12">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E12">
         <v>0.8552325581395349</v>
@@ -1207,7 +1207,7 @@
         <v>25</v>
       </c>
       <c r="D13">
-        <v>0.8799999999999999</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E13">
         <v>0.9034883720930232</v>
@@ -1265,7 +1265,7 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>0.985</v>
+        <v>0.9810000000000001</v>
       </c>
       <c r="E15">
         <v>0.9527737285304302</v>
@@ -1294,7 +1294,7 @@
         <v>28</v>
       </c>
       <c r="D16">
-        <v>0.9800000000000001</v>
+        <v>0.9810000000000001</v>
       </c>
       <c r="E16">
         <v>0.9278236787666257</v>
@@ -1323,19 +1323,19 @@
         <v>29</v>
       </c>
       <c r="D17">
-        <v>0.983</v>
+        <v>0.991</v>
       </c>
       <c r="E17">
-        <v>0.9043770213896556</v>
+        <v>0.9047067186771327</v>
       </c>
       <c r="F17">
         <v>0.9518072289156626</v>
       </c>
       <c r="G17">
-        <v>0.9508720930232558</v>
+        <v>0.9526162790697674</v>
       </c>
       <c r="H17">
-        <v>0.9545454545454545</v>
+        <v>0.9523809523809524</v>
       </c>
       <c r="I17">
         <v>43</v>
@@ -1381,7 +1381,7 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>0.9800000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E19">
         <v>0.9278236787666257</v>
@@ -1410,7 +1410,7 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>0.9099999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E20">
         <v>0.9527737285304302</v>
@@ -1439,7 +1439,7 @@
         <v>33</v>
       </c>
       <c r="D21">
-        <v>0.82</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="E21">
         <v>0.9527737285304302</v>
@@ -1468,19 +1468,19 @@
         <v>34</v>
       </c>
       <c r="D22">
-        <v>0.9399999999999998</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E22">
-        <v>0.9043770213896556</v>
+        <v>0.9074162525099211</v>
       </c>
       <c r="F22">
         <v>0.9518072289156626</v>
       </c>
       <c r="G22">
-        <v>0.9508720930232558</v>
+        <v>0.95</v>
       </c>
       <c r="H22">
-        <v>0.9545454545454545</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="I22">
         <v>43</v>
@@ -1526,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="D24">
-        <v>0.991</v>
+        <v>0.994</v>
       </c>
       <c r="E24">
         <v>0.9527737285304302</v>
@@ -1555,7 +1555,7 @@
         <v>37</v>
       </c>
       <c r="D25">
-        <v>0.9960000000000001</v>
+        <v>0.994</v>
       </c>
       <c r="E25">
         <v>0.9527737285304302</v>
@@ -1584,7 +1584,7 @@
         <v>38</v>
       </c>
       <c r="D26">
-        <v>0.9960000000000001</v>
+        <v>0.994</v>
       </c>
       <c r="E26">
         <v>0.9527737285304302</v>
@@ -1642,19 +1642,19 @@
         <v>40</v>
       </c>
       <c r="D28">
-        <v>0.9869999999999999</v>
+        <v>0.993</v>
       </c>
       <c r="E28">
-        <v>0.9298784399282942</v>
+        <v>0.9278236787666257</v>
       </c>
       <c r="F28">
         <v>0.963855421686747</v>
       </c>
       <c r="G28">
-        <v>0.9625</v>
+        <v>0.9633720930232558</v>
       </c>
       <c r="H28">
-        <v>0.9662921348314606</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="I28">
         <v>43</v>
@@ -1671,7 +1671,7 @@
         <v>41</v>
       </c>
       <c r="D29">
-        <v>0.9890000000000001</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E29">
         <v>0.9527737285304302</v>
@@ -1874,7 +1874,7 @@
         <v>48</v>
       </c>
       <c r="D36">
-        <v>0.8299999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="E36">
         <v>0.8042817846388085</v>
@@ -1903,19 +1903,19 @@
         <v>49</v>
       </c>
       <c r="D37">
-        <v>0.8099999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="E37">
-        <v>0.7874676472132914</v>
+        <v>0.7952302631578947</v>
       </c>
       <c r="F37">
         <v>0.927710843373494</v>
       </c>
       <c r="G37">
-        <v>0.860608552631579</v>
+        <v>0.8976151315789473</v>
       </c>
       <c r="H37">
-        <v>0.9545454545454545</v>
+        <v>0.953125</v>
       </c>
       <c r="I37">
         <v>64</v>
@@ -2019,7 +2019,7 @@
         <v>53</v>
       </c>
       <c r="D41">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E41">
         <v>0.8267089873766378</v>
@@ -2077,19 +2077,19 @@
         <v>55</v>
       </c>
       <c r="D43">
-        <v>0.8299999999999998</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E43">
-        <v>0.8968829674739368</v>
+        <v>0.931463152500253</v>
       </c>
       <c r="F43">
-        <v>0.963855421686747</v>
+        <v>0.9759036144578314</v>
       </c>
       <c r="G43">
-        <v>0.9210526315789473</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="H43">
-        <v>0.9770992366412213</v>
+        <v>0.9846153846153847</v>
       </c>
       <c r="I43">
         <v>64</v>
@@ -2135,19 +2135,19 @@
         <v>57</v>
       </c>
       <c r="D45">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="E45">
-        <v>0.6587171052631579</v>
+        <v>0.6472299111123082</v>
       </c>
       <c r="F45">
         <v>0.8795180722891566</v>
       </c>
       <c r="G45">
-        <v>0.829358552631579</v>
+        <v>0.8108552631578947</v>
       </c>
       <c r="H45">
-        <v>0.921875</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="I45">
         <v>64</v>
@@ -2167,16 +2167,16 @@
         <v>0.8799999999999999</v>
       </c>
       <c r="E46">
-        <v>0.373949388908281</v>
+        <v>0.3298551901380059</v>
       </c>
       <c r="F46">
-        <v>0.7469879518072289</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="G46">
-        <v>0.7064144736842105</v>
+        <v>0.6800986842105263</v>
       </c>
       <c r="H46">
-        <v>0.8264462809917354</v>
+        <v>0.8196721311475409</v>
       </c>
       <c r="I46">
         <v>64</v>
@@ -2196,16 +2196,16 @@
         <v>0.8899999999999999</v>
       </c>
       <c r="E47">
-        <v>0.6060966928632463</v>
+        <v>0.5638878933294721</v>
       </c>
       <c r="F47">
-        <v>0.8674698795180723</v>
+        <v>0.8554216867469879</v>
       </c>
       <c r="G47">
-        <v>0.7845394736842105</v>
+        <v>0.7582236842105263</v>
       </c>
       <c r="H47">
-        <v>0.9160305343511451</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I47">
         <v>64</v>
@@ -2312,16 +2312,16 @@
         <v>0.96</v>
       </c>
       <c r="E51">
-        <v>0.7129410625853516</v>
+        <v>0.7514898301685916</v>
       </c>
       <c r="F51">
-        <v>0.9036144578313253</v>
+        <v>0.9156626506024096</v>
       </c>
       <c r="G51">
-        <v>0.8264802631578947</v>
+        <v>0.852796052631579</v>
       </c>
       <c r="H51">
-        <v>0.9393939393939394</v>
+        <v>0.9465648854961832</v>
       </c>
       <c r="I51">
         <v>64</v>
@@ -2338,7 +2338,7 @@
         <v>64</v>
       </c>
       <c r="D52">
-        <v>0.9099999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E52">
         <v>0.2867255455335964</v>
@@ -2425,19 +2425,19 @@
         <v>67</v>
       </c>
       <c r="D55">
-        <v>0.9</v>
+        <v>0.8699999999999999</v>
       </c>
       <c r="E55">
-        <v>0.7280885711595266</v>
+        <v>0.699828204523419</v>
       </c>
       <c r="F55">
-        <v>0.9156626506024096</v>
+        <v>0.9036144578313253</v>
       </c>
       <c r="G55">
-        <v>0.8923395445134575</v>
+        <v>0.8850931677018633</v>
       </c>
       <c r="H55">
-        <v>0.7741935483870968</v>
+        <v>0.75</v>
       </c>
       <c r="I55">
         <v>14</v>
@@ -2483,19 +2483,19 @@
         <v>69</v>
       </c>
       <c r="D57">
-        <v>0.9199999999999999</v>
+        <v>0.7899999999999999</v>
       </c>
       <c r="E57">
-        <v>0.7082175358649382</v>
+        <v>0.699828204523419</v>
       </c>
       <c r="F57">
-        <v>0.9156626506024096</v>
+        <v>0.9036144578313253</v>
       </c>
       <c r="G57">
-        <v>0.8638716356107661</v>
+        <v>0.8850931677018633</v>
       </c>
       <c r="H57">
-        <v>0.7586206896551724</v>
+        <v>0.75</v>
       </c>
       <c r="I57">
         <v>14</v>
@@ -2512,19 +2512,19 @@
         <v>70</v>
       </c>
       <c r="D58">
-        <v>0.985</v>
+        <v>0.97</v>
       </c>
       <c r="E58">
-        <v>0.867742006863901</v>
+        <v>0.8681907322380075</v>
       </c>
       <c r="F58">
         <v>0.963855421686747</v>
       </c>
       <c r="G58">
-        <v>0.8928571428571428</v>
+        <v>0.9213250517598344</v>
       </c>
       <c r="H58">
-        <v>0.88</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -2541,7 +2541,7 @@
         <v>71</v>
       </c>
       <c r="D59">
-        <v>0.985</v>
+        <v>0.986</v>
       </c>
       <c r="E59">
         <v>0.8681907322380075</v>
@@ -2628,7 +2628,7 @@
         <v>74</v>
       </c>
       <c r="D62">
-        <v>0.986</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E62">
         <v>0.7422360248447205</v>
@@ -2657,7 +2657,7 @@
         <v>75</v>
       </c>
       <c r="D63">
-        <v>0.9</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E63">
         <v>0.699828204523419</v>
@@ -2686,7 +2686,7 @@
         <v>76</v>
       </c>
       <c r="D64">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E64">
         <v>0.699828204523419</v>
@@ -2715,7 +2715,7 @@
         <v>77</v>
       </c>
       <c r="D65">
-        <v>0.9810000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E65">
         <v>0.8681907322380075</v>
@@ -2744,19 +2744,19 @@
         <v>78</v>
       </c>
       <c r="D66">
-        <v>0.993</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E66">
-        <v>0.8211980551510591</v>
+        <v>0.8281573498964804</v>
       </c>
       <c r="F66">
         <v>0.9518072289156626</v>
       </c>
       <c r="G66">
-        <v>0.8856107660455487</v>
+        <v>0.9140786749482401</v>
       </c>
       <c r="H66">
-        <v>0.8461538461538461</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I66">
         <v>14</v>
@@ -2802,7 +2802,7 @@
         <v>80</v>
       </c>
       <c r="D68">
-        <v>0.985</v>
+        <v>0.9890000000000001</v>
       </c>
       <c r="E68">
         <v>0.8216731534114899</v>
@@ -2860,7 +2860,7 @@
         <v>82</v>
       </c>
       <c r="D70">
-        <v>0.9890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="E70">
         <v>0.7297088758523506</v>
@@ -2918,7 +2918,7 @@
         <v>84</v>
       </c>
       <c r="D72">
-        <v>0.994</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="E72">
         <v>0.867742006863901</v>
@@ -2976,7 +2976,7 @@
         <v>86</v>
       </c>
       <c r="D74">
-        <v>0.986</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E74">
         <v>0.6483638331565705</v>
@@ -3005,7 +3005,7 @@
         <v>87</v>
       </c>
       <c r="D75">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
       <c r="E75">
         <v>0.7297088758523506</v>
@@ -3034,7 +3034,7 @@
         <v>88</v>
       </c>
       <c r="D76">
-        <v>0.982</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E76">
         <v>0.8681907322380075</v>
@@ -3063,19 +3063,19 @@
         <v>89</v>
       </c>
       <c r="D77">
-        <v>0.9869999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E77">
-        <v>0.7796651416044023</v>
+        <v>0.7918335465004855</v>
       </c>
       <c r="F77">
         <v>0.9397590361445783</v>
       </c>
       <c r="G77">
-        <v>0.8783643892339544</v>
+        <v>0.9068322981366459</v>
       </c>
       <c r="H77">
-        <v>0.8148148148148148</v>
+        <v>0.8275862068965518</v>
       </c>
       <c r="I77">
         <v>14</v>
@@ -3092,19 +3092,19 @@
         <v>90</v>
       </c>
       <c r="D78">
-        <v>0.7799999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E78">
-        <v>0.543683739535667</v>
+        <v>0.551946004289372</v>
       </c>
       <c r="F78">
-        <v>0.8554216867469879</v>
+        <v>0.8433734939759037</v>
       </c>
       <c r="G78">
-        <v>0.7991718426501035</v>
+        <v>0.8203933747412009</v>
       </c>
       <c r="H78">
-        <v>0.6250000000000001</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="I78">
         <v>14</v>
@@ -3150,19 +3150,19 @@
         <v>92</v>
       </c>
       <c r="D80">
-        <v>0.86</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E80">
-        <v>0.6158518525372025</v>
+        <v>0.6840677729207231</v>
       </c>
       <c r="F80">
-        <v>0.9156626506024096</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="G80">
-        <v>0.9551282051282051</v>
+        <v>0.967948717948718</v>
       </c>
       <c r="H80">
-        <v>0.5882352941176471</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I80">
         <v>5</v>
@@ -3295,7 +3295,7 @@
         <v>97</v>
       </c>
       <c r="D85">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E85">
         <v>0.7259927871993819</v>
@@ -3324,19 +3324,19 @@
         <v>98</v>
       </c>
       <c r="D86">
-        <v>0.9869999999999999</v>
+        <v>0.992</v>
       </c>
       <c r="E86">
-        <v>0.7114651826918209</v>
+        <v>0.7871794871794872</v>
       </c>
       <c r="F86">
-        <v>0.963855421686747</v>
+        <v>0.9759036144578314</v>
       </c>
       <c r="G86">
-        <v>0.8871794871794871</v>
+        <v>0.8935897435897436</v>
       </c>
       <c r="H86">
-        <v>0.7272727272727272</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="I86">
         <v>5</v>
@@ -3353,7 +3353,7 @@
         <v>99</v>
       </c>
       <c r="D87">
-        <v>0.9810000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E87">
         <v>0.7114651826918209</v>
@@ -3411,7 +3411,7 @@
         <v>101</v>
       </c>
       <c r="D89">
-        <v>0.992</v>
+        <v>0.9890000000000001</v>
       </c>
       <c r="E89">
         <v>0.8342485816414049</v>
@@ -3440,7 +3440,7 @@
         <v>102</v>
       </c>
       <c r="D90">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
       <c r="E90">
         <v>0.9070003156832817</v>
@@ -3556,7 +3556,7 @@
         <v>106</v>
       </c>
       <c r="D94">
-        <v>0.9879999999999999</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E94">
         <v>0.7114651826918209</v>
@@ -3643,7 +3643,7 @@
         <v>109</v>
       </c>
       <c r="D97">
-        <v>0.9869999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="E97">
         <v>0.8342485816414049</v>
@@ -3701,7 +3701,7 @@
         <v>111</v>
       </c>
       <c r="D99">
-        <v>0.986</v>
+        <v>0.9890000000000001</v>
       </c>
       <c r="E99">
         <v>0.7259927871993819</v>
@@ -3730,7 +3730,7 @@
         <v>112</v>
       </c>
       <c r="D100">
-        <v>0.9810000000000001</v>
+        <v>0.982</v>
       </c>
       <c r="E100">
         <v>0.9070003156832817</v>
@@ -4020,19 +4020,19 @@
         <v>122</v>
       </c>
       <c r="D110">
-        <v>0.8400000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="E110">
-        <v>0.46889585037584</v>
+        <v>0.4481697548529493</v>
       </c>
       <c r="F110">
-        <v>0.7228915662650602</v>
+        <v>0.7108433734939759</v>
       </c>
       <c r="G110">
-        <v>0.7298951048951049</v>
+        <v>0.7185314685314685</v>
       </c>
       <c r="H110">
-        <v>0.7012987012987013</v>
+        <v>0.6842105263157896</v>
       </c>
       <c r="I110">
         <v>44</v>
@@ -4223,19 +4223,19 @@
         <v>129</v>
       </c>
       <c r="D117">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="E117">
-        <v>0.5969621134641284</v>
+        <v>0.5878821097951015</v>
       </c>
       <c r="F117">
         <v>0.7831325301204819</v>
       </c>
       <c r="G117">
-        <v>0.791083916083916</v>
+        <v>0.7896270396270396</v>
       </c>
       <c r="H117">
-        <v>0.763157894736842</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="I117">
         <v>44</v>
@@ -4310,19 +4310,19 @@
         <v>132</v>
       </c>
       <c r="D120">
-        <v>0.9960000000000001</v>
+        <v>0.9949999999999999</v>
       </c>
       <c r="E120">
-        <v>0.6132762003942809</v>
+        <v>0.6036949306884013</v>
       </c>
       <c r="F120">
-        <v>0.7951807228915663</v>
+        <v>0.7831325301204819</v>
       </c>
       <c r="G120">
-        <v>0.784965034965035</v>
+        <v>0.7706876456876457</v>
       </c>
       <c r="H120">
-        <v>0.8316831683168316</v>
+        <v>0.826923076923077</v>
       </c>
       <c r="I120">
         <v>44</v>
@@ -4455,19 +4455,19 @@
         <v>137</v>
       </c>
       <c r="D125">
-        <v>0.9499999999999998</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E125">
-        <v>0.3742028564532582</v>
+        <v>0.3249165681458976</v>
       </c>
       <c r="F125">
-        <v>0.9156626506024096</v>
+        <v>0.8915662650602409</v>
       </c>
       <c r="G125">
-        <v>0.7958333333333334</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="H125">
-        <v>0.3636363636363636</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I125">
         <v>3</v>
@@ -4484,7 +4484,7 @@
         <v>138</v>
       </c>
       <c r="D126">
-        <v>0.9199999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E126">
         <v>0.4444624815964758</v>
@@ -4513,19 +4513,19 @@
         <v>139</v>
       </c>
       <c r="D127">
-        <v>0.9199999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="E127">
-        <v>0.1952031169173711</v>
+        <v>0.2578155966122687</v>
       </c>
       <c r="F127">
-        <v>0.9156626506024096</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="G127">
-        <v>0.6354166666666666</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="H127">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="I127">
         <v>3</v>
@@ -4542,7 +4542,7 @@
         <v>140</v>
       </c>
       <c r="D128">
-        <v>0.984</v>
+        <v>0.983</v>
       </c>
       <c r="E128">
         <v>0.4444624815964758</v>
@@ -4571,7 +4571,7 @@
         <v>141</v>
       </c>
       <c r="D129">
-        <v>0.9979999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="E129">
         <v>0.559205660257597</v>
@@ -4600,19 +4600,19 @@
         <v>142</v>
       </c>
       <c r="D130">
-        <v>0.9899999999999999</v>
+        <v>0.988</v>
       </c>
       <c r="E130">
-        <v>0.4444624815964758</v>
+        <v>0.4057948819484283</v>
       </c>
       <c r="F130">
-        <v>0.9397590361445783</v>
+        <v>0.927710843373494</v>
       </c>
       <c r="G130">
-        <v>0.8083333333333333</v>
+        <v>0.8020833333333333</v>
       </c>
       <c r="H130">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="I130">
         <v>3</v>
@@ -4629,7 +4629,7 @@
         <v>143</v>
       </c>
       <c r="D131">
-        <v>0.9099999999999998</v>
+        <v>0.89</v>
       </c>
       <c r="E131">
         <v>0.4444624815964758</v>
@@ -4658,19 +4658,19 @@
         <v>144</v>
       </c>
       <c r="D132">
-        <v>0.9700000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="E132">
-        <v>0.4935589400977631</v>
+        <v>0.4444624815964758</v>
       </c>
       <c r="F132">
-        <v>0.9518072289156626</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="G132">
-        <v>0.8145833333333333</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="H132">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I132">
         <v>3</v>
@@ -4716,19 +4716,19 @@
         <v>146</v>
       </c>
       <c r="D134">
-        <v>0.8999999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E134">
-        <v>0.1952031169173711</v>
+        <v>0.2578155966122687</v>
       </c>
       <c r="F134">
-        <v>0.9156626506024096</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="G134">
-        <v>0.6354166666666666</v>
+        <v>0.6479166666666667</v>
       </c>
       <c r="H134">
-        <v>0.2222222222222222</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="I134">
         <v>3</v>
@@ -4745,19 +4745,19 @@
         <v>147</v>
       </c>
       <c r="D135">
-        <v>0.985</v>
+        <v>0.9899999999999999</v>
       </c>
       <c r="E135">
-        <v>0.3742028564532582</v>
+        <v>0.4444624815964758</v>
       </c>
       <c r="F135">
-        <v>0.9156626506024096</v>
+        <v>0.9397590361445783</v>
       </c>
       <c r="G135">
-        <v>0.7958333333333334</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="H135">
-        <v>0.3636363636363636</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="I135">
         <v>3</v>
@@ -4803,19 +4803,19 @@
         <v>149</v>
       </c>
       <c r="D137">
-        <v>0.981</v>
+        <v>0.96</v>
       </c>
       <c r="E137">
-        <v>0.3249165681458976</v>
+        <v>0.2717549127444297</v>
       </c>
       <c r="F137">
-        <v>0.8915662650602409</v>
+        <v>0.8554216867469879</v>
       </c>
       <c r="G137">
-        <v>0.7833333333333333</v>
+        <v>0.7645833333333334</v>
       </c>
       <c r="H137">
-        <v>0.3076923076923077</v>
+        <v>0.25</v>
       </c>
       <c r="I137">
         <v>3</v>
@@ -4832,19 +4832,19 @@
         <v>150</v>
       </c>
       <c r="D138">
-        <v>0.87</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E138">
-        <v>0.1542594470737343</v>
+        <v>0.1685491513628021</v>
       </c>
       <c r="F138">
-        <v>0.7108433734939759</v>
+        <v>0.7349397590361446</v>
       </c>
       <c r="G138">
-        <v>0.6895833333333333</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="H138">
-        <v>0.1428571428571428</v>
+        <v>0.1538461538461538</v>
       </c>
       <c r="I138">
         <v>3</v>
@@ -4861,19 +4861,19 @@
         <v>151</v>
       </c>
       <c r="D139">
-        <v>0.9899999999999999</v>
+        <v>0.989</v>
       </c>
       <c r="E139">
-        <v>0.2717549127444297</v>
+        <v>0.2575298062442672</v>
       </c>
       <c r="F139">
-        <v>0.8554216867469879</v>
+        <v>0.8433734939759037</v>
       </c>
       <c r="G139">
-        <v>0.7645833333333334</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="H139">
-        <v>0.25</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="I139">
         <v>3</v>
@@ -4893,16 +4893,16 @@
         <v>0.9499999999999998</v>
       </c>
       <c r="E140">
-        <v>0.1411033774908659</v>
+        <v>0.1348800974667526</v>
       </c>
       <c r="F140">
-        <v>0.6867469879518072</v>
+        <v>0.6746987951807228</v>
       </c>
       <c r="G140">
-        <v>0.6770833333333333</v>
+        <v>0.6708333333333334</v>
       </c>
       <c r="H140">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="I140">
         <v>3</v>
@@ -4919,19 +4919,19 @@
         <v>153</v>
       </c>
       <c r="D141">
-        <v>0.9860000000000001</v>
+        <v>0.9899999999999999</v>
       </c>
       <c r="E141">
-        <v>0.3476738804211889</v>
+        <v>0.4057948819484283</v>
       </c>
       <c r="F141">
-        <v>0.9036144578313253</v>
+        <v>0.927710843373494</v>
       </c>
       <c r="G141">
-        <v>0.7895833333333333</v>
+        <v>0.8020833333333333</v>
       </c>
       <c r="H141">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="I141">
         <v>3</v>
